--- a/medicine/Sexualité et sexologie/Layla_Roberts/Layla_Roberts.xlsx
+++ b/medicine/Sexualité et sexologie/Layla_Roberts/Layla_Roberts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Layla Roberts ou Layla Harvest Roberts, née le 22 octobre 1974 à Kealakekua, Hawaii (États-Unis), est un mannequin et une actrice américaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est italien et sa mère cherokee.
 Modèle pour Playboy, elle est apparue dans la série Alerte à Malibu.
@@ -548,13 +562,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cinéma
-1998 : Armageddon : Molly Mounds
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1998 : Armageddon : Molly Mounds
 1999 : Beowulf : la mère de Grendel
-2000 : En lettres de sang (Red Letters) : Cheryl Russo
-Télévision
-1997 : Alerte à Malibu (Baywatch) (Série TV) : Nola
-1998 : Erotic Confessions (Série TV) : Jacqueline Stone</t>
+2000 : En lettres de sang (Red Letters) : Cheryl Russo</t>
         </is>
       </c>
     </row>
@@ -579,10 +595,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1997 : Alerte à Malibu (Baywatch) (Série TV) : Nola
+1998 : Erotic Confessions (Série TV) : Jacqueline Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Layla_Roberts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layla_Roberts</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Apparitions notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Playboy en octobre 1997
 </t>
